--- a/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Vtn-Itgb3.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Vtn-Itgb3.xlsx
@@ -528,22 +528,22 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G2">
-        <v>7.134618000000001</v>
+        <v>5.835941000000001</v>
       </c>
       <c r="H2">
-        <v>21.403854</v>
+        <v>17.507823</v>
       </c>
       <c r="I2">
-        <v>0.09653179209260773</v>
+        <v>0.03643643319117328</v>
       </c>
       <c r="J2">
-        <v>0.09653179209260773</v>
+        <v>0.03643643319117327</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -552,28 +552,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>8.970048</v>
+        <v>0.110552</v>
       </c>
       <c r="N2">
-        <v>26.910144</v>
+        <v>0.331656</v>
       </c>
       <c r="O2">
-        <v>0.487108783009476</v>
+        <v>0.01126249561724847</v>
       </c>
       <c r="P2">
-        <v>0.4871087830094759</v>
+        <v>0.01126249561724847</v>
       </c>
       <c r="Q2">
-        <v>63.99786592166401</v>
+        <v>0.645174949432</v>
       </c>
       <c r="R2">
-        <v>575.980793294976</v>
+        <v>5.806574544888001</v>
       </c>
       <c r="S2">
-        <v>0.0470214837679539</v>
+        <v>0.0004103651691237558</v>
       </c>
       <c r="T2">
-        <v>0.0470214837679539</v>
+        <v>0.0004103651691237557</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,22 +590,22 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F3">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G3">
-        <v>7.134618000000001</v>
+        <v>5.835941000000001</v>
       </c>
       <c r="H3">
-        <v>21.403854</v>
+        <v>17.507823</v>
       </c>
       <c r="I3">
-        <v>0.09653179209260773</v>
+        <v>0.03643643319117328</v>
       </c>
       <c r="J3">
-        <v>0.09653179209260773</v>
+        <v>0.03643643319117327</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,22 +620,22 @@
         <v>27.036212</v>
       </c>
       <c r="O3">
-        <v>0.489390778604016</v>
+        <v>0.9181055646724333</v>
       </c>
       <c r="P3">
-        <v>0.489390778604016</v>
+        <v>0.9181055646724334</v>
       </c>
       <c r="Q3">
-        <v>64.297681595672</v>
+        <v>52.59391269849734</v>
       </c>
       <c r="R3">
-        <v>578.679134361048</v>
+        <v>473.3452142864761</v>
       </c>
       <c r="S3">
-        <v>0.04724176889224229</v>
+        <v>0.03345249206963153</v>
       </c>
       <c r="T3">
-        <v>0.04724176889224229</v>
+        <v>0.03345249206963153</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,22 +652,22 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F4">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G4">
-        <v>7.134618000000001</v>
+        <v>5.835941000000001</v>
       </c>
       <c r="H4">
-        <v>21.403854</v>
+        <v>17.507823</v>
       </c>
       <c r="I4">
-        <v>0.09653179209260773</v>
+        <v>0.03643643319117328</v>
       </c>
       <c r="J4">
-        <v>0.09653179209260773</v>
+        <v>0.03643643319117327</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -676,28 +676,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.4327576666666667</v>
+        <v>0.6933189999999999</v>
       </c>
       <c r="N4">
-        <v>1.298273</v>
+        <v>2.079957</v>
       </c>
       <c r="O4">
-        <v>0.02350043838650813</v>
+        <v>0.07063193971031816</v>
       </c>
       <c r="P4">
-        <v>0.02350043838650813</v>
+        <v>0.07063193971031817</v>
       </c>
       <c r="Q4">
-        <v>3.087560638238</v>
+        <v>4.046168778179</v>
       </c>
       <c r="R4">
-        <v>27.788045744142</v>
+        <v>36.415519003611</v>
       </c>
       <c r="S4">
-        <v>0.00226853943241154</v>
+        <v>0.002573575952417986</v>
       </c>
       <c r="T4">
-        <v>0.00226853943241154</v>
+        <v>0.002573575952417986</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -720,16 +720,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>17.50798033333333</v>
+        <v>17.50798033333334</v>
       </c>
       <c r="H5">
-        <v>52.52394099999999</v>
+        <v>52.52394100000001</v>
       </c>
       <c r="I5">
-        <v>0.2368839813846793</v>
+        <v>0.1093102818770573</v>
       </c>
       <c r="J5">
-        <v>0.2368839813846793</v>
+        <v>0.1093102818770573</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -738,28 +738,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>8.970048</v>
+        <v>0.110552</v>
       </c>
       <c r="N5">
-        <v>26.910144</v>
+        <v>0.331656</v>
       </c>
       <c r="O5">
-        <v>0.487108783009476</v>
+        <v>0.01126249561724847</v>
       </c>
       <c r="P5">
-        <v>0.4871087830094759</v>
+        <v>0.01126249561724847</v>
       </c>
       <c r="Q5">
-        <v>157.047423973056</v>
+        <v>1.935542241810667</v>
       </c>
       <c r="R5">
-        <v>1413.426815757504</v>
+        <v>17.419880176296</v>
       </c>
       <c r="S5">
-        <v>0.1153882678867305</v>
+        <v>0.001231106570560553</v>
       </c>
       <c r="T5">
-        <v>0.1153882678867305</v>
+        <v>0.001231106570560553</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -782,16 +782,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>17.50798033333333</v>
+        <v>17.50798033333334</v>
       </c>
       <c r="H6">
-        <v>52.52394099999999</v>
+        <v>52.52394100000001</v>
       </c>
       <c r="I6">
-        <v>0.2368839813846793</v>
+        <v>0.1093102818770573</v>
       </c>
       <c r="J6">
-        <v>0.2368839813846793</v>
+        <v>0.1093102818770573</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,10 +806,10 @@
         <v>27.036212</v>
       </c>
       <c r="O6">
-        <v>0.489390778604016</v>
+        <v>0.9181055646724333</v>
       </c>
       <c r="P6">
-        <v>0.489390778604016</v>
+        <v>0.9181055646724334</v>
       </c>
       <c r="Q6">
         <v>157.7831559946102</v>
@@ -818,10 +818,10 @@
         <v>1420.048403951492</v>
       </c>
       <c r="S6">
-        <v>0.1159288360886674</v>
+        <v>0.1003583780672385</v>
       </c>
       <c r="T6">
-        <v>0.1159288360886674</v>
+        <v>0.1003583780672385</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -844,16 +844,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>17.50798033333333</v>
+        <v>17.50798033333334</v>
       </c>
       <c r="H7">
-        <v>52.52394099999999</v>
+        <v>52.52394100000001</v>
       </c>
       <c r="I7">
-        <v>0.2368839813846793</v>
+        <v>0.1093102818770573</v>
       </c>
       <c r="J7">
-        <v>0.2368839813846793</v>
+        <v>0.1093102818770573</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -862,28 +862,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>0.4327576666666667</v>
+        <v>0.6933189999999999</v>
       </c>
       <c r="N7">
-        <v>1.298273</v>
+        <v>2.079957</v>
       </c>
       <c r="O7">
-        <v>0.02350043838650813</v>
+        <v>0.07063193971031816</v>
       </c>
       <c r="P7">
-        <v>0.02350043838650813</v>
+        <v>0.07063193971031817</v>
       </c>
       <c r="Q7">
-        <v>7.576712717099221</v>
+        <v>12.13861541672633</v>
       </c>
       <c r="R7">
-        <v>68.190414453893</v>
+        <v>109.247538750537</v>
       </c>
       <c r="S7">
-        <v>0.005566877409281395</v>
+        <v>0.007720797239258195</v>
       </c>
       <c r="T7">
-        <v>0.005566877409281394</v>
+        <v>0.007720797239258195</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,16 +906,16 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>49.26691733333334</v>
+        <v>136.8238143333333</v>
       </c>
       <c r="H8">
-        <v>147.800752</v>
+        <v>410.471443</v>
       </c>
       <c r="I8">
-        <v>0.666584226522713</v>
+        <v>0.8542532849317694</v>
       </c>
       <c r="J8">
-        <v>0.666584226522713</v>
+        <v>0.8542532849317694</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -924,28 +924,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>8.970048</v>
+        <v>0.110552</v>
       </c>
       <c r="N8">
-        <v>26.910144</v>
+        <v>0.331656</v>
       </c>
       <c r="O8">
-        <v>0.487108783009476</v>
+        <v>0.01126249561724847</v>
       </c>
       <c r="P8">
-        <v>0.4871087830094759</v>
+        <v>0.01126249561724847</v>
       </c>
       <c r="Q8">
-        <v>441.9266132920321</v>
+        <v>15.12614632217867</v>
       </c>
       <c r="R8">
-        <v>3977.339519628288</v>
+        <v>136.135316899608</v>
       </c>
       <c r="S8">
-        <v>0.3246990313547916</v>
+        <v>0.009621023877564163</v>
       </c>
       <c r="T8">
-        <v>0.3246990313547916</v>
+        <v>0.009621023877564165</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,16 +968,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>49.26691733333334</v>
+        <v>136.8238143333333</v>
       </c>
       <c r="H9">
-        <v>147.800752</v>
+        <v>410.471443</v>
       </c>
       <c r="I9">
-        <v>0.666584226522713</v>
+        <v>0.8542532849317694</v>
       </c>
       <c r="J9">
-        <v>0.666584226522713</v>
+        <v>0.8542532849317694</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,22 +992,22 @@
         <v>27.036212</v>
       </c>
       <c r="O9">
-        <v>0.489390778604016</v>
+        <v>0.9181055646724333</v>
       </c>
       <c r="P9">
-        <v>0.489390778604016</v>
+        <v>0.9181055646724334</v>
       </c>
       <c r="Q9">
-        <v>443.9969405368249</v>
+        <v>1233.06588365488</v>
       </c>
       <c r="R9">
-        <v>3995.972464831425</v>
+        <v>11097.59295289392</v>
       </c>
       <c r="S9">
-        <v>0.3262201736231063</v>
+        <v>0.7842946945355632</v>
       </c>
       <c r="T9">
-        <v>0.3262201736231063</v>
+        <v>0.7842946945355633</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,16 +1030,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>49.26691733333334</v>
+        <v>136.8238143333333</v>
       </c>
       <c r="H10">
-        <v>147.800752</v>
+        <v>410.471443</v>
       </c>
       <c r="I10">
-        <v>0.666584226522713</v>
+        <v>0.8542532849317694</v>
       </c>
       <c r="J10">
-        <v>0.666584226522713</v>
+        <v>0.8542532849317694</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1048,28 +1048,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>0.4327576666666667</v>
+        <v>0.6933189999999999</v>
       </c>
       <c r="N10">
-        <v>1.298273</v>
+        <v>2.079957</v>
       </c>
       <c r="O10">
-        <v>0.02350043838650813</v>
+        <v>0.07063193971031816</v>
       </c>
       <c r="P10">
-        <v>0.02350043838650813</v>
+        <v>0.07063193971031817</v>
       </c>
       <c r="Q10">
-        <v>21.32063618903289</v>
+        <v>94.86255012977232</v>
       </c>
       <c r="R10">
-        <v>191.885725701296</v>
+        <v>853.762951167951</v>
       </c>
       <c r="S10">
-        <v>0.01566502154481519</v>
+        <v>0.06033756651864198</v>
       </c>
       <c r="T10">
-        <v>0.01566502154481519</v>
+        <v>0.06033756651864199</v>
       </c>
     </row>
   </sheetData>
